--- a/src/public/xlsx/data.xlsx
+++ b/src/public/xlsx/data.xlsx
@@ -14,39 +14,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11" count="11">
-  <x:si>
-    <x:t>price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>colors</x:t>
-  </x:si>
-  <x:si>
-    <x:t>styleNos</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sizes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>S-200301200341/S-200301200327</x:t>
-  </x:si>
-  <x:si>
-    <x:t>No-2/B-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>S:3/M:2/L:2/XL:0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>S-200301200350/S-200301200333</x:t>
-  </x:si>
-  <x:si>
-    <x:t>S:3/M:0/L:3/XL:0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>H-200301180317/H-200301180325</x:t>
-  </x:si>
-  <x:si>
-    <x:t>S:0/M:3/L:2/XL:3</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25" count="25">
+  <x:si>
+    <x:t>account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>address</x:t>
+  </x:si>
+  <x:si>
+    <x:t>remark</x:t>
+  </x:si>
+  <x:si>
+    <x:t>contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>phone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>channel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>haha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123456</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hehe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123456@164.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XXX-XXX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>******************</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xixi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1234567</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rrrrrr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bbb</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>44444</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rrrrr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55555</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adel</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -409,7 +451,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
+    <x:row r="1" spans="1:9">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -422,38 +464,119 @@
       <x:c r="D1" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:9">
+      <x:c r="A2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9">
+      <x:c r="A3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:4">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9">
+      <x:c r="A4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:9">
+      <x:c r="A5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:9">
+      <x:c r="A6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:9">
+      <x:c r="A7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>10</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/src/public/xlsx/data.xlsx
+++ b/src/public/xlsx/data.xlsx
@@ -14,81 +14,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25" count="25">
-  <x:si>
-    <x:t>account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>remark</x:t>
-  </x:si>
-  <x:si>
-    <x:t>contact</x:t>
-  </x:si>
-  <x:si>
-    <x:t>phone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>channel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>haha</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123456</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hehe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123456@164.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XXX-XXX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>******************</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xixi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1234567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rrrrrr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bbb</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>44444</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rrrrr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55555</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adel</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18" count="18">
+  <x:si>
+    <x:t>账号</x:t>
+  </x:si>
+  <x:si>
+    <x:t>姓名</x:t>
+  </x:si>
+  <x:si>
+    <x:t>密码</x:t>
+  </x:si>
+  <x:si>
+    <x:t>邮箱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>联系人</x:t>
+  </x:si>
+  <x:si>
+    <x:t>电话</x:t>
+  </x:si>
+  <x:si>
+    <x:t>税号</x:t>
+  </x:si>
+  <x:si>
+    <x:t>所属通道</x:t>
+  </x:si>
+  <x:si>
+    <x:t>地址</x:t>
+  </x:si>
+  <x:si>
+    <x:t>托运地址</x:t>
+  </x:si>
+  <x:si>
+    <x:t>备注</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>undefined-undefined(undefined)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2@qq.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHINA-2(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JAPAN-2(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -451,7 +430,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:9">
+    <x:row r="1" spans="1:11">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -479,104 +458,86 @@
       <x:c r="I1" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:9">
+    <x:row r="2" spans="1:11">
       <x:c r="A2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:11">
+      <x:c r="A3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:11">
+      <x:c r="A4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:9">
-      <x:c r="A3" s="0" t="s">
+      <x:c r="I4" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="J4" s="0" t="s">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:9">
-      <x:c r="A4" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:9">
-      <x:c r="A5" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:9">
-      <x:c r="A6" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:9">
-      <x:c r="A7" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
